--- a/reports/Students.xlsx
+++ b/reports/Students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Student ID</t>
   </si>
@@ -41,58 +41,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>Windyl</t>
-  </si>
-  <si>
-    <t>Parcon</t>
-  </si>
-  <si>
-    <t>Monton</t>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Restor</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>2023-6018</t>
+    <t>2023-6210</t>
   </si>
   <si>
     <t>BSIT</t>
   </si>
   <si>
-    <t>2025-12-06</t>
+    <t>2025-12-10</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Jellian</t>
-  </si>
-  <si>
-    <t>Rosales</t>
-  </si>
-  <si>
-    <t>Basan</t>
-  </si>
-  <si>
-    <t>2024-0607</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Gwapo</t>
-  </si>
-  <si>
-    <t>Dugan</t>
-  </si>
-  <si>
-    <t>2023-6079</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
+    <t>Adrian Paul</t>
+  </si>
+  <si>
+    <t>Mamales</t>
+  </si>
+  <si>
+    <t>Macalolot</t>
+  </si>
+  <si>
+    <t>2023-6207</t>
+  </si>
+  <si>
+    <t>BSBA</t>
   </si>
 </sst>
 </file>
@@ -143,16 +128,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.69140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.0234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.72265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.6328125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="7.3515625" customWidth="true" bestFit="true"/>
@@ -231,36 +216,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
